--- a/Saucedemo Login page documenatation/Saucedemo Documentation-Login page.xlsx
+++ b/Saucedemo Login page documenatation/Saucedemo Documentation-Login page.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive - ahqb\Desktop\SeleniumTask\Saucedemo Login page documenatation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive - ahqb\Desktop\SeleniumAndSpecFlowTask\Saucedemo Login page documenatation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16896787-0B1C-4F01-BAF3-85FE7B106F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D2003-3B8F-48D4-A03C-3973B6CA1D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Verifies if correct text is displayed when textbox "Password" is empty and username is incorrect.</t>
   </si>
   <si>
-    <t>Clear "Username" texbox.</t>
-  </si>
-  <si>
     <t>Verifies if "Username" textbox is empty</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Verifies if correct text is displayed when textbox "Username" is empty and passwordis incorrect.</t>
   </si>
   <si>
-    <t>Clear "Password" texbox.</t>
-  </si>
-  <si>
     <t>Verifies if "Password" textbox is empty</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Verifies if incorrect username entered</t>
   </si>
   <si>
-    <t>Clear "Username" and "Password" textboxes.</t>
-  </si>
-  <si>
     <t>Enters incorrect username and correct password.</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>Verifies if correct text is displayed when uername and password are incorrect.</t>
+  </si>
+  <si>
+    <t>Clears "Username" texbox.</t>
+  </si>
+  <si>
+    <t>Clears "Password" texbox.</t>
+  </si>
+  <si>
+    <t>Clears "Username" and "Password" textboxes.</t>
   </si>
 </sst>
 </file>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>6.1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>7.3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
         <v>8.1</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -791,7 +791,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -799,7 +799,7 @@
         <v>9.1</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>10.3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>11.1</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
         <v>11.2</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>12.2</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
         <v>13.3</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
         <v>14.1</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>14.2</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
         <v>15.1</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -967,7 +967,7 @@
         <v>15.2</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>16.3</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1023,7 +1023,7 @@
         <v>17.2</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1031,7 +1031,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1047,7 +1047,7 @@
         <v>18.2</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
